--- a/budgeteer-web-interface/src/main/resources/budget-report-template.xlsx
+++ b/budgeteer-web-interface/src/main/resources/budget-report-template.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atanasov\workspace\budgeteer\budgeteer-web-interface\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="995" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="995"/>
   </bookViews>
   <sheets>
-    <sheet name="Complete Overview" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Month Overview" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Flags" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Complete Overview" sheetId="1" r:id="rId1"/>
+    <sheet name="Month Overview" sheetId="2" r:id="rId2"/>
+    <sheet name="Flags" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Complete Overview'!$B$3:$J$3</definedName>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Month Overview'!$B$3:$J$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Complete Overview'!$B$3:$J$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Complete Overview'!$B$3:$J$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Month Overview'!$B$3:$J$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Month Overview'!$B$3:$J$3</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="0">'Complete Overview'!$B$3:$J$3</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="1">'Month Overview'!$B$3:$J$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Complete Overview'!$B$3:$J$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1">'Month Overview'!$B$3:$J$3</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -32,98 +34,95 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
   <si>
-    <t xml:space="preserve">Accounting period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Until</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Budget</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spent net</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spent gross</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remaining net budget</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remaining gross budget</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Progress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invoice recipient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{from}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{until}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{name}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{spent_net}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{spent_gross}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{hoursAggregated}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{budgetRemaining_net}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{budgetRemaining_gross}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{progress}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{attributes.rechnungsempfaenger}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sum according to invoice recipient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sum {name}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total sum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{flag:warning1}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{flag:warning2}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{flag:warning3}</t>
+    <t>Accounting period</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>Until</t>
+  </si>
+  <si>
+    <t>Budget</t>
+  </si>
+  <si>
+    <t>Spent net</t>
+  </si>
+  <si>
+    <t>Spent gross</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
+  <si>
+    <t>Remaining net budget</t>
+  </si>
+  <si>
+    <t>Remaining gross budget</t>
+  </si>
+  <si>
+    <t>Progress</t>
+  </si>
+  <si>
+    <t>Invoice recipient</t>
+  </si>
+  <si>
+    <t>{from}</t>
+  </si>
+  <si>
+    <t>{until}</t>
+  </si>
+  <si>
+    <t>{name}</t>
+  </si>
+  <si>
+    <t>{spent_net}</t>
+  </si>
+  <si>
+    <t>{spent_gross}</t>
+  </si>
+  <si>
+    <t>{hoursAggregated}</t>
+  </si>
+  <si>
+    <t>{budgetRemaining_net}</t>
+  </si>
+  <si>
+    <t>{budgetRemaining_gross}</t>
+  </si>
+  <si>
+    <t>{progress}</t>
+  </si>
+  <si>
+    <t>{attributes.rechnungsempfaenger}</t>
+  </si>
+  <si>
+    <t>Sum according to invoice recipient</t>
+  </si>
+  <si>
+    <t>Sum {name}</t>
+  </si>
+  <si>
+    <t>Total sum</t>
+  </si>
+  <si>
+    <t>{flag:warning1}</t>
+  </si>
+  <si>
+    <t>{flag:warning2}</t>
+  </si>
+  <si>
+    <t>{flag:warning3}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="D\-MMM\-YY"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00&quot; €&quot;"/>
-    <numFmt numFmtId="167" formatCode="0.00%"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00&quot; €&quot;"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -132,22 +131,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -155,7 +139,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -220,49 +204,73 @@
     </fill>
   </fills>
   <borders count="7">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -278,117 +286,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="8" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="10" fontId="2" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+  <cellStyles count="2">
+    <cellStyle name="Erklärender Text" xfId="1" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -447,51 +376,315 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.417004048583"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="10.6032388663968"/>
+    <col min="1" max="1" width="10.5703125"/>
+    <col min="2" max="2" width="11.42578125"/>
+    <col min="3" max="3" width="18.140625"/>
+    <col min="4" max="5" width="22"/>
+    <col min="6" max="6" width="17.42578125"/>
+    <col min="7" max="7" width="22.5703125"/>
+    <col min="8" max="8" width="24.28515625"/>
+    <col min="9" max="9" width="15.5703125"/>
+    <col min="10" max="10" width="22"/>
+    <col min="11" max="1025" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -523,14 +716,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -539,7 +732,7 @@
       <c r="E4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="6" t="s">
@@ -551,11 +744,11 @@
       <c r="I4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="J4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>21</v>
       </c>
@@ -569,59 +762,59 @@
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
-      <c r="D8" s="11" t="n">
-        <f aca="false">SUMIF(J4:J5,"{name}",D4:D5)</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="11" t="n">
-        <f aca="false">SUMIF(J4:J5,"{name}",E4:E5)</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="10" t="n">
-        <f aca="false">SUMIF(J4:J5,"{name}",F4:F5)</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="11" t="n">
-        <f aca="false">SUMIF(J4:J5,"{name}",G4:G5)</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="11" t="n">
-        <f aca="false">SUMIF(J4:J5,"{name}",H4:H5)</f>
+      <c r="D8" s="11">
+        <f>SUMIF(J4:J5,"{name}",D4:D5)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="11">
+        <f>SUMIF(J4:J5,"{name}",E4:E5)</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="10">
+        <f>SUMIF(J4:J5,"{name}",F4:F5)</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="11">
+        <f>SUMIF(J4:J5,"{name}",G4:G5)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="11">
+        <f>SUMIF(J4:J5,"{name}",H4:H5)</f>
         <v>0</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
-      <c r="D9" s="14" t="n">
-        <f aca="false">SUM(D4:D5)</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="14" t="n">
-        <f aca="false">SUM(E4:E5)</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="12" t="n">
-        <f aca="false">SUM(F4:F5)</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="14" t="n">
-        <f aca="false">SUM(G4:G5)</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="14" t="n">
-        <f aca="false">SUM(H4:H5)</f>
+      <c r="D9" s="14">
+        <f>SUM(D4:D5)</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="14">
+        <f>SUM(E4:E5)</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="12">
+        <f>SUM(F4:F5)</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="14">
+        <f>SUM(G4:G5)</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="14">
+        <f>SUM(H4:H5)</f>
         <v>0</v>
       </c>
       <c r="I9" s="13"/>
@@ -632,49 +825,40 @@
   <mergeCells count="1">
     <mergeCell ref="A2:B2"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+    <sheetView topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.2834008097166"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="10.6032388663968"/>
+    <col min="1" max="1" width="10.5703125"/>
+    <col min="2" max="2" width="11.42578125"/>
+    <col min="3" max="3" width="18.140625"/>
+    <col min="4" max="5" width="22"/>
+    <col min="6" max="6" width="10.28515625"/>
+    <col min="7" max="7" width="24.5703125"/>
+    <col min="8" max="8" width="25.28515625"/>
+    <col min="9" max="9" width="15.5703125"/>
+    <col min="10" max="10" width="21.85546875"/>
+    <col min="11" max="1025" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -706,14 +890,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -722,7 +906,7 @@
       <c r="E4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="6" t="s">
@@ -734,11 +918,11 @@
       <c r="I4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="J4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>21</v>
       </c>
@@ -752,59 +936,59 @@
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
-      <c r="D8" s="11" t="n">
-        <f aca="false">SUMIF(J4:J5,"{name}",D4:D5)</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="11" t="n">
-        <f aca="false">SUMIF(J4:J5,"{name}",E4:E5)</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="10" t="n">
-        <f aca="false">SUMIF(J4:J5,"{name}",F4:F5)</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="11" t="n">
-        <f aca="false">SUMIF(J4:J5,"{name}",G4:G5)</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="11" t="n">
-        <f aca="false">SUMIF(J4:J5,"{name}",H4:H5)</f>
+      <c r="D8" s="11">
+        <f>SUMIF(J4:J5,"{name}",D4:D5)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="11">
+        <f>SUMIF(J4:J5,"{name}",E4:E5)</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="10">
+        <f>SUMIF(J4:J5,"{name}",F4:F5)</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="11">
+        <f>SUMIF(J4:J5,"{name}",G4:G5)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="11">
+        <f>SUMIF(J4:J5,"{name}",H4:H5)</f>
         <v>0</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
-      <c r="D9" s="14" t="n">
-        <f aca="false">SUM(D4:D5)</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="14" t="n">
-        <f aca="false">SUM(E4:E5)</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="12" t="n">
-        <f aca="false">SUM(F4:F5)</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="14" t="n">
-        <f aca="false">SUM(G4:G5)</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="14" t="n">
-        <f aca="false">SUM(H4:H5)</f>
+      <c r="D9" s="14">
+        <f>SUM(D4:D5)</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="14">
+        <f>SUM(E4:E5)</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="12">
+        <f>SUM(F4:F5)</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="14">
+        <f>SUM(G4:G5)</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="14">
+        <f>SUM(H4:H5)</f>
         <v>0</v>
       </c>
       <c r="I9" s="13"/>
@@ -815,34 +999,25 @@
   <mergeCells count="1">
     <mergeCell ref="A2:B2"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D46" activeCellId="0" sqref="D46"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.6032388663968"/>
+    <col min="1" max="1025" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>24</v>
       </c>
@@ -854,12 +1029,7 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/budgeteer-web-interface/src/main/resources/budget-report-template.xlsx
+++ b/budgeteer-web-interface/src/main/resources/budget-report-template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atanasov\workspace\budgeteer\budgeteer-web-interface\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atanasov\workspace\BUDGETEER\budgeteer\budgeteer-web-interface\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -46,12 +46,6 @@
     <t>Budget</t>
   </si>
   <si>
-    <t>Spent net</t>
-  </si>
-  <si>
-    <t>Spent gross</t>
-  </si>
-  <si>
     <t>Hours</t>
   </si>
   <si>
@@ -97,9 +91,6 @@
     <t>{attributes.rechnungsempfaenger}</t>
   </si>
   <si>
-    <t>Sum according to invoice recipient</t>
-  </si>
-  <si>
     <t>Sum {name}</t>
   </si>
   <si>
@@ -113,14 +104,25 @@
   </si>
   <si>
     <t>{flag:warning3}</t>
+  </si>
+  <si>
+    <t>Net spent</t>
+  </si>
+  <si>
+    <t>Gross spent</t>
+  </si>
+  <si>
+    <t>Sum with regard to invoice recipient</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.00&quot; €&quot;"/>
+    <numFmt numFmtId="165" formatCode="dd/mmm/yyyy"/>
+    <numFmt numFmtId="166" formatCode="0.0\ &quot;h&quot;"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -290,15 +292,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -311,6 +309,11 @@
     <xf numFmtId="10" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="10" fontId="2" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="10" fontId="2" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Erklärender Text" xfId="1" builtinId="53" customBuiltin="1"/>
@@ -666,8 +669,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125"/>
-    <col min="2" max="2" width="11.42578125"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="18.140625"/>
     <col min="4" max="5" width="22"/>
     <col min="6" max="6" width="17.42578125"/>
@@ -679,146 +682,146 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1"/>
+      <c r="A2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="18"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="B4" s="16" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="F4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="G4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="J4" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="7" t="s">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J4" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9">
+        <f>SUMIF(J4:J5,"{name}",D4:D5)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="9">
+        <f>SUMIF(J4:J5,"{name}",E4:E5)</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="8">
+        <f>SUMIF(J4:J5,"{name}",F4:F5)</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="9">
+        <f>SUMIF(J4:J5,"{name}",G4:G5)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="9">
+        <f>SUMIF(J4:J5,"{name}",H4:H5)</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11">
-        <f>SUMIF(J4:J5,"{name}",D4:D5)</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="11">
-        <f>SUMIF(J4:J5,"{name}",E4:E5)</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="10">
-        <f>SUMIF(J4:J5,"{name}",F4:F5)</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="11">
-        <f>SUMIF(J4:J5,"{name}",G4:G5)</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="11">
-        <f>SUMIF(J4:J5,"{name}",H4:H5)</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12">
         <f>SUM(D4:D5)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="12">
         <f>SUM(E4:E5)</f>
         <v>0</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="10">
         <f>SUM(F4:F5)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="12">
         <f>SUM(G4:G5)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="12">
         <f>SUM(H4:H5)</f>
         <v>0</v>
       </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="B3:J3"/>
@@ -826,7 +829,7 @@
     <mergeCell ref="A2:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -834,14 +837,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J9"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
-    </sheetView>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125"/>
-    <col min="2" max="2" width="11.42578125"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
     <col min="3" max="3" width="18.140625"/>
     <col min="4" max="5" width="22"/>
     <col min="6" max="6" width="10.28515625"/>
@@ -853,146 +854,146 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1"/>
+      <c r="A2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="18"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="B4" s="16" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="F4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="G4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="J4" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="7" t="s">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J4" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9">
+        <f>SUMIF(J4:J5,"{name}",D4:D5)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="9">
+        <f>SUMIF(J4:J5,"{name}",E4:E5)</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="8">
+        <f>SUMIF(J4:J5,"{name}",F4:F5)</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="9">
+        <f>SUMIF(J4:J5,"{name}",G4:G5)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="9">
+        <f>SUMIF(J4:J5,"{name}",H4:H5)</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11">
-        <f>SUMIF(J4:J5,"{name}",D4:D5)</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="11">
-        <f>SUMIF(J4:J5,"{name}",E4:E5)</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="10">
-        <f>SUMIF(J4:J5,"{name}",F4:F5)</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="11">
-        <f>SUMIF(J4:J5,"{name}",G4:G5)</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="11">
-        <f>SUMIF(J4:J5,"{name}",H4:H5)</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12">
         <f>SUM(D4:D5)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="12">
         <f>SUM(E4:E5)</f>
         <v>0</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="10">
         <f>SUM(F4:F5)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="12">
         <f>SUM(G4:G5)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="12">
         <f>SUM(H4:H5)</f>
         <v>0</v>
       </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="B3:J3"/>
@@ -1000,7 +1001,7 @@
     <mergeCell ref="A2:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1008,9 +1009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1018,14 +1017,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>26</v>
+      <c r="A1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
